--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TYSS\TYSS_Docs\VTigerAppDocuments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12570" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12570" windowHeight="11100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="TC_91-100" sheetId="7" r:id="rId6"/>
     <sheet name="TC_101-110" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="129">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -116,13 +121,305 @@
   </si>
   <si>
     <t>Filter OrgDropDown</t>
+  </si>
+  <si>
+    <t>TC_61</t>
+  </si>
+  <si>
+    <t>CreateContactFromSearch</t>
+  </si>
+  <si>
+    <t>https://localhost:8888</t>
+  </si>
+  <si>
+    <t>login page should be display</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Home page should be display</t>
+  </si>
+  <si>
+    <t>"Contacts" List page should be display</t>
+  </si>
+  <si>
+    <t>No contact found message should be displayed</t>
+  </si>
+  <si>
+    <t>vilasini</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>Search Now</t>
+  </si>
+  <si>
+    <t>Create new contact page should be displayed</t>
+  </si>
+  <si>
+    <t>Create contact(+ symbol)</t>
+  </si>
+  <si>
+    <t>contact should be created with below msg 
+[ Con** ] abc - contact Information   Updated today</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>TC_62</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>salutation was selected</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>SelectSalutationTypeFromDropdown</t>
+  </si>
+  <si>
+    <t>TC-63</t>
+  </si>
+  <si>
+    <t>EnterBirthdateSameAsCurrenDate</t>
+  </si>
+  <si>
+    <t>Calender</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>"birthdate  cant be same as current date message should be displayed</t>
+  </si>
+  <si>
+    <t>TC-64</t>
+  </si>
+  <si>
+    <t>CreateNewGroup</t>
+  </si>
+  <si>
+    <t>CRMSettings</t>
+  </si>
+  <si>
+    <t>"Settings"  page should be display</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>albania,6</t>
+  </si>
+  <si>
+    <t>New currency is created for User</t>
+  </si>
+  <si>
+    <t>Currency page will be displayed</t>
+  </si>
+  <si>
+    <t>New Currency</t>
+  </si>
+  <si>
+    <t>currency name</t>
+  </si>
+  <si>
+    <t>Currency code</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Conversion rate</t>
+  </si>
+  <si>
+    <t>TC-65</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Groups page will be displayed</t>
+  </si>
+  <si>
+    <t>New Group</t>
+  </si>
+  <si>
+    <t>Create New group page will be displayed</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
+    <t>add group</t>
+  </si>
+  <si>
+    <t>members of entity</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Bankmanager</t>
+  </si>
+  <si>
+    <t>New group is created under Assignedto Group</t>
+  </si>
+  <si>
+    <t>CreateNewCurrency</t>
+  </si>
+  <si>
+    <t>TC-66</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Roles page will be displayed</t>
+  </si>
+  <si>
+    <t>organization(+)</t>
+  </si>
+  <si>
+    <t>Roles name</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>Roles will be created</t>
+  </si>
+  <si>
+    <t>salesman</t>
+  </si>
+  <si>
+    <t>CreateNewRoles</t>
+  </si>
+  <si>
+    <t>TC-67</t>
+  </si>
+  <si>
+    <t>CreateNewUser</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>saigun</t>
+  </si>
+  <si>
+    <t>New user</t>
+  </si>
+  <si>
+    <t>User page should display</t>
+  </si>
+  <si>
+    <t>confirm password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>New user should create</t>
+  </si>
+  <si>
+    <t>TC-68</t>
+  </si>
+  <si>
+    <t>CreateFilter</t>
+  </si>
+  <si>
+    <t>create filter</t>
+  </si>
+  <si>
+    <t>sam,saigun</t>
+  </si>
+  <si>
+    <t>view name</t>
+  </si>
+  <si>
+    <t>New custom view page should display</t>
+  </si>
+  <si>
+    <t>TC-69</t>
+  </si>
+  <si>
+    <t>CopyOtherAddress</t>
+  </si>
+  <si>
+    <t>Other street</t>
+  </si>
+  <si>
+    <t>other PO Box</t>
+  </si>
+  <si>
+    <t>other city</t>
+  </si>
+  <si>
+    <t>other state</t>
+  </si>
+  <si>
+    <t>other postel code</t>
+  </si>
+  <si>
+    <t>other country</t>
+  </si>
+  <si>
+    <t>copy other address</t>
+  </si>
+  <si>
+    <t>Thrissur,palaceroad,680624,kerala</t>
+  </si>
+  <si>
+    <t>Other address should be copied to mailing address</t>
+  </si>
+  <si>
+    <t>TC-70</t>
+  </si>
+  <si>
+    <t>LocateMap</t>
+  </si>
+  <si>
+    <t>Location specified in the address must be displayed in the map</t>
+  </si>
+  <si>
+    <t>LocateAddressInMAp</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +443,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14.3"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +476,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,11 +512,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,12 +572,38 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -271,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,9 +682,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +717,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,21 +893,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -543,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -558,7 +939,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -569,7 +950,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -580,7 +961,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="13" t="s">
@@ -591,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -602,7 +983,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -613,7 +994,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -624,7 +1005,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -635,7 +1016,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
@@ -646,7 +1027,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
@@ -657,7 +1038,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13" t="s">
@@ -668,10 +1049,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -686,7 +1067,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -697,7 +1078,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -708,7 +1089,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="13" t="s">
@@ -719,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
@@ -730,7 +1111,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="3" t="s">
@@ -741,7 +1122,7 @@
       </c>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
@@ -752,7 +1133,7 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
@@ -763,7 +1144,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
@@ -774,7 +1155,7 @@
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
@@ -785,7 +1166,7 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="13" t="s">
@@ -796,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
@@ -807,7 +1188,7 @@
       </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
@@ -818,7 +1199,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="13" t="s">
@@ -829,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="3" t="s">
@@ -840,7 +1221,7 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="3" t="s">
@@ -851,7 +1232,7 @@
       </c>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="13" t="s">
@@ -877,14 +1258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -894,7 +1275,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,14 +1298,1096 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E103" s="21"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+      <c r="C104" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C112" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C119" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" s="20"/>
+      <c r="E119" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C123" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D123" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C124" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C125" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C126" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C127" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C128" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C129" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C130" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E130" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="17"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D13" r:id="rId2"/>
+    <hyperlink ref="D25" r:id="rId3"/>
+    <hyperlink ref="D49" r:id="rId4"/>
+    <hyperlink ref="D37" r:id="rId5"/>
+    <hyperlink ref="D62" r:id="rId6"/>
+    <hyperlink ref="D72" r:id="rId7"/>
+    <hyperlink ref="D87" r:id="rId8"/>
+    <hyperlink ref="D97" r:id="rId9"/>
+    <hyperlink ref="D114" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -933,7 +2396,7 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,15 +2418,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -972,7 +2435,7 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -994,15 +2457,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1011,7 +2474,7 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1033,15 +2496,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1050,46 +2513,7 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
